--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -20798,7 +20798,11 @@
           <t>test</t>
         </is>
       </c>
-      <c r="C308" s="3" t="inlineStr"/>
+      <c r="C308" s="3" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
       <c r="D308" s="3" t="inlineStr"/>
       <c r="E308" s="3" t="inlineStr"/>
       <c r="F308" s="3" t="inlineStr"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -20800,10 +20800,14 @@
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="D308" s="3" t="inlineStr"/>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="D308" s="3" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
       <c r="E308" s="3" t="inlineStr"/>
       <c r="F308" s="3" t="inlineStr"/>
       <c r="G308" s="3" t="inlineStr"/>

--- a/inputs/AddictO_Product_Defs.xlsx
+++ b/inputs/AddictO_Product_Defs.xlsx
@@ -20792,60 +20792,68 @@
       <c r="Z307" s="3" t="inlineStr"/>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="inlineStr"/>
-      <c r="B308" s="3" t="inlineStr">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C308" s="3" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="D308" s="3" t="inlineStr"/>
-      <c r="E308" s="3" t="inlineStr"/>
-      <c r="F308" s="3" t="inlineStr"/>
-      <c r="G308" s="3" t="inlineStr"/>
-      <c r="H308" s="3" t="inlineStr"/>
-      <c r="I308" s="3" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="J308" s="3" t="inlineStr"/>
-      <c r="K308" s="3" t="inlineStr"/>
-      <c r="L308" s="3" t="inlineStr"/>
-      <c r="M308" s="3" t="inlineStr"/>
-      <c r="N308" s="3" t="inlineStr"/>
-      <c r="O308" s="3" t="inlineStr"/>
-      <c r="P308" s="3" t="inlineStr"/>
-      <c r="Q308" s="3" t="inlineStr"/>
-      <c r="R308" s="3" t="inlineStr"/>
-      <c r="S308" s="3" t="inlineStr"/>
-      <c r="T308" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U308" s="3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V308" s="3" t="inlineStr"/>
-      <c r="W308" s="3" t="inlineStr">
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
+      <c r="R308" t="inlineStr"/>
+      <c r="S308" t="inlineStr"/>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr"/>
+      <c r="W308" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="X308" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y308" s="3" t="inlineStr"/>
-      <c r="Z308" s="3" t="inlineStr"/>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr"/>
+      <c r="Z308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
